--- a/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Provincia-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5483</v>
+        <v>5672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04884766386408713</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.154946839349995</v>
+        <v>0.1602842857095295</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6567</v>
+        <v>5696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02979864508721598</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1674051916348316</v>
+        <v>0.145203797910413</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>2898</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8406</v>
+        <v>7782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0388322899747512</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01079997751667699</v>
+        <v>0.01081409639074117</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1126582756296497</v>
+        <v>0.1042990273698533</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>33657</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29903</v>
+        <v>29714</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>35386</v>
@@ -824,7 +824,7 @@
         <v>0.9511523361359129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8450531606500051</v>
+        <v>0.8397157142904733</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -836,7 +836,7 @@
         <v>38062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>32664</v>
+        <v>33535</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>39231</v>
@@ -845,7 +845,7 @@
         <v>0.970201354912784</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8325948083651667</v>
+        <v>0.854796202089587</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -857,19 +857,19 @@
         <v>71719</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>66211</v>
+        <v>66835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73811</v>
+        <v>73810</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9611677100252488</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8873417243703502</v>
+        <v>0.8957009726301453</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9892000224833229</v>
+        <v>0.9891859036092588</v>
       </c>
     </row>
     <row r="6">
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5890</v>
+        <v>5195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0147925718409827</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08836926291721817</v>
+        <v>0.0779413633455103</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -982,19 +982,19 @@
         <v>7237</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3015</v>
+        <v>3119</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14034</v>
+        <v>14466</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07394543899763638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03080696617117243</v>
+        <v>0.0318698202969441</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1433831552371659</v>
+        <v>0.1478036871480461</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -1003,19 +1003,19 @@
         <v>8223</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3763</v>
+        <v>3897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15510</v>
+        <v>15697</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04998135873043165</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02287209712487837</v>
+        <v>0.02368313268448356</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09426714169252445</v>
+        <v>0.09540716783431379</v>
       </c>
     </row>
     <row r="8">
@@ -1032,7 +1032,7 @@
         <v>65668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>60764</v>
+        <v>61459</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>66654</v>
@@ -1041,7 +1041,7 @@
         <v>0.9852074281590173</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9116307370827791</v>
+        <v>0.9220586366544901</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>90638</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83841</v>
+        <v>83409</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94860</v>
+        <v>94756</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9260545610023636</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8566168447628338</v>
+        <v>0.8521963128519539</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9691930338288276</v>
+        <v>0.9681301797030559</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>153</v>
@@ -1074,19 +1074,19 @@
         <v>156306</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>149019</v>
+        <v>148832</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>160766</v>
+        <v>160632</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9500186412695684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9057328583074753</v>
+        <v>0.9045928321656864</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9771279028751215</v>
+        <v>0.9763168673155165</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5089</v>
+        <v>5182</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01863722505053117</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09990336452825503</v>
+        <v>0.1017215873765512</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>3.517171966334041e-06</v>
+        <v>3.956066544932365e-06</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2</v>
@@ -1223,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5399</v>
+        <v>3903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007061012617731784</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04014962241464697</v>
+        <v>0.02902515255294958</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>49991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45851</v>
+        <v>45758</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>50940</v>
@@ -1258,7 +1258,7 @@
         <v>0.9813627749494689</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9000966354717408</v>
+        <v>0.8982784126234487</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1279,7 +1279,7 @@
         <v>0.9999993354400705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9999964828280338</v>
+        <v>0.9999960439334576</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1291,7 +1291,7 @@
         <v>133512</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129062</v>
+        <v>130558</v>
       </c>
       <c r="T11" s="5" t="n">
         <v>134461</v>
@@ -1300,7 +1300,7 @@
         <v>0.9929389873822683</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9598503775853522</v>
+        <v>0.9709748474470503</v>
       </c>
       <c r="W11" s="6" t="n">
         <v>1</v>
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4532</v>
+        <v>4777</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01506936303083897</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08222656094675734</v>
+        <v>0.08666800521116751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5688</v>
+        <v>5438</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01456889842396426</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07653459789604221</v>
+        <v>0.07317942373316612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6920</v>
+        <v>6786</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01478202900115146</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0534607066346867</v>
+        <v>0.0524271135653243</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>54291</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>50590</v>
+        <v>50345</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>55122</v>
@@ -1475,7 +1475,7 @@
         <v>0.9849306369691611</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9177734390532447</v>
+        <v>0.9133319947888321</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>73230</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>68625</v>
+        <v>68875</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>74313</v>
@@ -1496,7 +1496,7 @@
         <v>0.9854311015760358</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9234654021039582</v>
+        <v>0.9268205762668339</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,7 +1508,7 @@
         <v>127523</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122516</v>
+        <v>122650</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>129436</v>
@@ -1517,7 +1517,7 @@
         <v>0.9852179709988486</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9465392933653139</v>
+        <v>0.9475728864346761</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1612,19 +1612,19 @@
         <v>4281</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1668</v>
+        <v>1631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8903</v>
+        <v>8473</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1458809684774247</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05683091757723341</v>
+        <v>0.05556458943773546</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3033573235903146</v>
+        <v>0.2887256755050336</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1636,16 +1636,16 @@
         <v>1141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9801</v>
+        <v>9818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1053757997695153</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02765438870819127</v>
+        <v>0.02766669568852754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2376190137165015</v>
+        <v>0.23803619889686</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>9</v>
@@ -1654,19 +1654,19 @@
         <v>8628</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4004</v>
+        <v>4421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15170</v>
+        <v>15168</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1222147242239156</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05672549037466389</v>
+        <v>0.06262287080525039</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2148907214657417</v>
+        <v>0.2148682730840114</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>25066</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>20444</v>
+        <v>20874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27679</v>
+        <v>27716</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8541190315225753</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6966426764096854</v>
+        <v>0.7112743244949663</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9431690824227665</v>
+        <v>0.9444354105622645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>35</v>
@@ -1704,7 +1704,7 @@
         <v>36900</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31445</v>
+        <v>31428</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>40105</v>
@@ -1713,10 +1713,10 @@
         <v>0.8946242002304846</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7623809862834986</v>
+        <v>0.7619638011031391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9723456112918087</v>
+        <v>0.9723333043114724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>64</v>
@@ -1725,19 +1725,19 @@
         <v>61965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55423</v>
+        <v>55425</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66589</v>
+        <v>66172</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8777852757760845</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7851092785342587</v>
+        <v>0.7851317269159886</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9432745096253362</v>
+        <v>0.9373771291947498</v>
       </c>
     </row>
     <row r="18">
@@ -1845,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5386</v>
+        <v>6005</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01623070573591475</v>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0766063470730496</v>
+        <v>0.08540826690308097</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5717</v>
+        <v>5738</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.009711587362085159</v>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04865179704345857</v>
+        <v>0.04883169146127406</v>
       </c>
     </row>
     <row r="20">
@@ -1905,7 +1905,7 @@
         <v>69168</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>64923</v>
+        <v>64304</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>70309</v>
@@ -1914,7 +1914,7 @@
         <v>0.9837692942640852</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9233936529269494</v>
+        <v>0.9145917330969161</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1926,7 +1926,7 @@
         <v>116365</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>111789</v>
+        <v>111768</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>117506</v>
@@ -1935,7 +1935,7 @@
         <v>0.9902884126379149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9513482029565414</v>
+        <v>0.9511683085387257</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6038</v>
+        <v>5689</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01688354145369436</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05699701181430371</v>
+        <v>0.0537033127717888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2051,19 +2051,19 @@
         <v>3953</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1034</v>
+        <v>1140</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9445</v>
+        <v>9700</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03375222922406446</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.008828722614932024</v>
+        <v>0.009736485357238421</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08063900637603166</v>
+        <v>0.08282437095260975</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2072,19 +2072,19 @@
         <v>5742</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2026</v>
+        <v>1926</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12347</v>
+        <v>11692</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02574114544770552</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009082450458072686</v>
+        <v>0.008634032453257886</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05535545944098989</v>
+        <v>0.05242013462014257</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2101,7 @@
         <v>104140</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>99890</v>
+        <v>100239</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>105928</v>
@@ -2110,7 +2110,7 @@
         <v>0.9831164585463057</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9430029881856988</v>
+        <v>0.9462966872282117</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2122,19 +2122,19 @@
         <v>113168</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>107676</v>
+        <v>107421</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>116087</v>
+        <v>115981</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9662477707759355</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9193609936239684</v>
+        <v>0.9171756290473901</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9911712773850679</v>
+        <v>0.9902635146427615</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>219</v>
@@ -2143,19 +2143,19 @@
         <v>217307</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>210702</v>
+        <v>211357</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>221023</v>
+        <v>221123</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9742588545522944</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9446445405590111</v>
+        <v>0.9475798653798574</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9909175495419273</v>
+        <v>0.9913659675467422</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>4905</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1920</v>
+        <v>1890</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10791</v>
+        <v>10703</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0438326363544629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01715637806305232</v>
+        <v>0.01689435394263523</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09643779046029172</v>
+        <v>0.09565459762519696</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2268,19 +2268,19 @@
         <v>8437</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3494</v>
+        <v>3584</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>15465</v>
+        <v>17356</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05505975063388316</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02280302928037317</v>
+        <v>0.0233928724940267</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1009325709143724</v>
+        <v>0.1132730391178619</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -2289,19 +2289,19 @@
         <v>13341</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6747</v>
+        <v>7312</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>22300</v>
+        <v>22463</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05032135979588036</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02544941377250862</v>
+        <v>0.0275801025767023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.08411321567213281</v>
+        <v>0.08472687170176088</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>106988</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101102</v>
+        <v>101190</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109973</v>
+        <v>110003</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9561673636455371</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9035622095397082</v>
+        <v>0.9043454023748029</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9828436219369476</v>
+        <v>0.9831056460573648</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -2339,19 +2339,19 @@
         <v>144788</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>137760</v>
+        <v>135869</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>149731</v>
+        <v>149641</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9449402493661169</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8990674290856275</v>
+        <v>0.8867269608821382</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9771969707196267</v>
+        <v>0.9766071275059733</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>248</v>
@@ -2360,19 +2360,19 @@
         <v>251777</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>242818</v>
+        <v>242655</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>258371</v>
+        <v>257806</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9496786402041196</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9158867843278672</v>
+        <v>0.9152731282982395</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9745505862274914</v>
+        <v>0.9724198974232978</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>15469</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>9177</v>
+        <v>9901</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>24451</v>
+        <v>24848</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03078553080878009</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01826391542892521</v>
+        <v>0.01970541533937428</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04866117329393109</v>
+        <v>0.0494528093214738</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -2485,19 +2485,19 @@
         <v>27366</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17552</v>
+        <v>18554</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>38695</v>
+        <v>40174</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.04043231174706541</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02593164612697657</v>
+        <v>0.02741279307595707</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05716940224508994</v>
+        <v>0.05935484914251669</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>43</v>
@@ -2506,19 +2506,19 @@
         <v>42835</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>31236</v>
+        <v>31094</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>57154</v>
+        <v>57075</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03632212215309295</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02648636264773876</v>
+        <v>0.02636632816137748</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04846369327719988</v>
+        <v>0.04839666032135107</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>486997</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>478015</v>
+        <v>477618</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>493289</v>
+        <v>492565</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9692144691912199</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.951338826706069</v>
+        <v>0.9505471906785258</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9817360845710749</v>
+        <v>0.9802945846606257</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>635</v>
@@ -2556,19 +2556,19 @@
         <v>649476</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>638147</v>
+        <v>636668</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>659290</v>
+        <v>658288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9595676882529346</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9428305977549101</v>
+        <v>0.9406451508574833</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9740683538730235</v>
+        <v>0.972587206924043</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1141</v>
@@ -2577,19 +2577,19 @@
         <v>1136473</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1122154</v>
+        <v>1122233</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1148072</v>
+        <v>1148214</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9636778778469071</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9515363067228009</v>
+        <v>0.9516033396786487</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9735136373522614</v>
+        <v>0.9736336718386225</v>
       </c>
     </row>
     <row r="30">
@@ -2928,7 +2928,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6332</v>
+        <v>6281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04603639988600741</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1429900864942176</v>
+        <v>0.141833918461036</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2946,19 +2946,19 @@
         <v>6559</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3151</v>
+        <v>3202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12980</v>
+        <v>12977</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1341401099477792</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06443874888498435</v>
+        <v>0.06549667596650727</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2654642529506462</v>
+        <v>0.2654105386521055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>8</v>
@@ -2967,19 +2967,19 @@
         <v>8597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4153</v>
+        <v>4163</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15992</v>
+        <v>15834</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09226938485131456</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04456793451539048</v>
+        <v>0.04468351095138759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1716336976069416</v>
+        <v>0.1699336297185808</v>
       </c>
     </row>
     <row r="5">
@@ -2996,7 +2996,7 @@
         <v>42242</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37949</v>
+        <v>38000</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>44281</v>
@@ -3005,7 +3005,7 @@
         <v>0.9539636001139926</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8570099135057817</v>
+        <v>0.8581660815389632</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -3017,19 +3017,19 @@
         <v>42335</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35914</v>
+        <v>35917</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45743</v>
+        <v>45692</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8658598900522209</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7345357470493535</v>
+        <v>0.7345894613478948</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9355612511150156</v>
+        <v>0.9345033240334927</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -3038,19 +3038,19 @@
         <v>84578</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77183</v>
+        <v>77341</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>89022</v>
+        <v>89012</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9077306151486855</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8283663023930584</v>
+        <v>0.8300663702814192</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9554320654846095</v>
+        <v>0.9553164890486124</v>
       </c>
     </row>
     <row r="6">
@@ -3142,19 +3142,19 @@
         <v>7392</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2237</v>
+        <v>3064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15410</v>
+        <v>15360</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09332631075938828</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02823849422523698</v>
+        <v>0.03868444163405289</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1945599895859875</v>
+        <v>0.1939292856690115</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -3163,19 +3163,19 @@
         <v>15417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>9003</v>
+        <v>8892</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>25854</v>
+        <v>24943</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1510053063608171</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0881886960622639</v>
+        <v>0.08709527842735423</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2532428927340939</v>
+        <v>0.2443175504283811</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>19</v>
@@ -3184,19 +3184,19 @@
         <v>22808</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14173</v>
+        <v>14265</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>34076</v>
+        <v>33469</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1258070771001696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07817617574684796</v>
+        <v>0.07868108905803087</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1879582128741249</v>
+        <v>0.1846106708824414</v>
       </c>
     </row>
     <row r="8">
@@ -3213,19 +3213,19 @@
         <v>71811</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>63793</v>
+        <v>63843</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76966</v>
+        <v>76139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9066736892406118</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8054400104140126</v>
+        <v>0.8060707143309885</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9717615057747631</v>
+        <v>0.9613155583659472</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -3234,19 +3234,19 @@
         <v>86676</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76239</v>
+        <v>77150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>93090</v>
+        <v>93201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8489946936391829</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7467571072659062</v>
+        <v>0.7556824495716189</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9118113039377364</v>
+        <v>0.9129047215726457</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>143</v>
@@ -3255,19 +3255,19 @@
         <v>158488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>147220</v>
+        <v>147827</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>167123</v>
+        <v>167031</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8741929228998304</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8120417871258752</v>
+        <v>0.8153893291175587</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9218238242531523</v>
+        <v>0.9213189109419693</v>
       </c>
     </row>
     <row r="9">
@@ -3359,19 +3359,19 @@
         <v>5063</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10521</v>
+        <v>10619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09083381439420167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03478535493891765</v>
+        <v>0.03471817897112218</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.188747222512958</v>
+        <v>0.1905066296521487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -3380,19 +3380,19 @@
         <v>9683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4344</v>
+        <v>4384</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16591</v>
+        <v>17124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1210868534101536</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05431733262281554</v>
+        <v>0.05481645058926199</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2074679646740807</v>
+        <v>0.2141314706960563</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3401,19 +3401,19 @@
         <v>14746</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8341</v>
+        <v>9257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23964</v>
+        <v>23872</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1086605858097555</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06145858718145781</v>
+        <v>0.0682145203219869</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1765805189798718</v>
+        <v>0.1759037920158204</v>
       </c>
     </row>
     <row r="11">
@@ -3430,19 +3430,19 @@
         <v>50679</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45221</v>
+        <v>45123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53803</v>
+        <v>53807</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9091661856057983</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8112527774870421</v>
+        <v>0.8094933703478503</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9652146450610825</v>
+        <v>0.9652818210288778</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -3451,19 +3451,19 @@
         <v>70285</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63377</v>
+        <v>62844</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75624</v>
+        <v>75584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8789131465898464</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7925320353259196</v>
+        <v>0.7858685293039438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9456826673771844</v>
+        <v>0.9451835494107379</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>114</v>
@@ -3472,19 +3472,19 @@
         <v>120964</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111746</v>
+        <v>111838</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>127369</v>
+        <v>126453</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8913394141902445</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8234194810201275</v>
+        <v>0.8240962079841792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9385414128185422</v>
+        <v>0.931785479678013</v>
       </c>
     </row>
     <row r="12">
@@ -3576,19 +3576,19 @@
         <v>4482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1141</v>
+        <v>1150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10205</v>
+        <v>10353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07000526466482378</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01781287515584997</v>
+        <v>0.01796488693074252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1593760784315197</v>
+        <v>0.1616910697768357</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -3597,19 +3597,19 @@
         <v>8519</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4190</v>
+        <v>4227</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>15121</v>
+        <v>15851</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09955073291012853</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04896569820174655</v>
+        <v>0.04939547382598525</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1767028610081208</v>
+        <v>0.1852360546288301</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -3618,19 +3618,19 @@
         <v>13001</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7392</v>
+        <v>6976</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21863</v>
+        <v>21854</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08690566192817584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04941073952834545</v>
+        <v>0.04663125893331175</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1461395082629431</v>
+        <v>0.1460806485286983</v>
       </c>
     </row>
     <row r="14">
@@ -3647,19 +3647,19 @@
         <v>59546</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>53823</v>
+        <v>53675</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>62887</v>
+        <v>62878</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9299947353351762</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8406239215684803</v>
+        <v>0.8383089302231639</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821871248441499</v>
+        <v>0.9820351130692575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>74</v>
@@ -3668,19 +3668,19 @@
         <v>77055</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70453</v>
+        <v>69723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81384</v>
+        <v>81347</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9004492670898715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8232971389918792</v>
+        <v>0.8147639453711699</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9510343017982534</v>
+        <v>0.9506045261740147</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -3689,19 +3689,19 @@
         <v>136601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>127739</v>
+        <v>127748</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>142210</v>
+        <v>142626</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9130943380718242</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8538604917370577</v>
+        <v>0.8539193514713015</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9505892604716546</v>
+        <v>0.9533687410666863</v>
       </c>
     </row>
     <row r="15">
@@ -3793,19 +3793,19 @@
         <v>3292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>955</v>
+        <v>1022</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7819</v>
+        <v>8163</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1041290401066137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03022533487094189</v>
+        <v>0.03234309768047926</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2473539290351923</v>
+        <v>0.2582247674494784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3814,19 +3814,19 @@
         <v>2979</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>970</v>
+        <v>946</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7925</v>
+        <v>7917</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05975925507034494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01945295053761353</v>
+        <v>0.01897996170209555</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1589703247744284</v>
+        <v>0.1587936067312637</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -3835,19 +3835,19 @@
         <v>6271</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2274</v>
+        <v>2116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12660</v>
+        <v>13396</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07697636898159757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02790919084052909</v>
+        <v>0.02597802215926229</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1553946713044687</v>
+        <v>0.1644399885194555</v>
       </c>
     </row>
     <row r="17">
@@ -3864,19 +3864,19 @@
         <v>28320</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23793</v>
+        <v>23449</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>30657</v>
+        <v>30590</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8958709598933863</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7526460709648076</v>
+        <v>0.7417752325505212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.969774665129058</v>
+        <v>0.9676569023195207</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>45</v>
@@ -3885,19 +3885,19 @@
         <v>46876</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41930</v>
+        <v>41938</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48885</v>
+        <v>48909</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.940240744929655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8410296752255709</v>
+        <v>0.841206393268737</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9805470494623865</v>
+        <v>0.9810200382979045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>70</v>
@@ -3906,19 +3906,19 @@
         <v>75196</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>68807</v>
+        <v>68071</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79193</v>
+        <v>79351</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9230236310184025</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8446053286955314</v>
+        <v>0.8355600114805446</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9720908091594703</v>
+        <v>0.9740219778407377</v>
       </c>
     </row>
     <row r="18">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7452</v>
+        <v>7321</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04119190878474865</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.143976852264831</v>
+        <v>0.1414507808912505</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -4031,19 +4031,19 @@
         <v>6406</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2203</v>
+        <v>2193</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12731</v>
+        <v>12747</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0912422236124824</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03136962705030085</v>
+        <v>0.03123689518974435</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1813263701167164</v>
+        <v>0.1815528936347195</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -4052,19 +4052,19 @@
         <v>8538</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4139</v>
+        <v>4157</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15062</v>
+        <v>15149</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0700037545614158</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03393152221023028</v>
+        <v>0.03408338535620162</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1234884341963702</v>
+        <v>0.1242079546030713</v>
       </c>
     </row>
     <row r="20">
@@ -4081,7 +4081,7 @@
         <v>49624</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>44304</v>
+        <v>44435</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>51756</v>
@@ -4090,7 +4090,7 @@
         <v>0.9588080912152513</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.856023147735169</v>
+        <v>0.8585492191087492</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -4102,19 +4102,19 @@
         <v>63806</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>57481</v>
+        <v>57465</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68009</v>
+        <v>68019</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9087577763875176</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8186736298832836</v>
+        <v>0.8184471063652805</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9686303729496992</v>
+        <v>0.9687631048102556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -4123,19 +4123,19 @@
         <v>113430</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>106906</v>
+        <v>106819</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>117829</v>
+        <v>117811</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9299962454385842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8765115658036298</v>
+        <v>0.8757920453969287</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9660684777897698</v>
+        <v>0.9659166146437984</v>
       </c>
     </row>
     <row r="21">
@@ -4227,19 +4227,19 @@
         <v>7346</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2955</v>
+        <v>3069</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>15134</v>
+        <v>15415</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06543345838004876</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02632644265078094</v>
+        <v>0.02733928904428419</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1348068902446733</v>
+        <v>0.137308956160748</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -4248,19 +4248,19 @@
         <v>14165</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7847</v>
+        <v>7930</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>23185</v>
+        <v>23153</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09977675535255087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0552774500901673</v>
+        <v>0.05586168547731993</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.163318909331609</v>
+        <v>0.1630939222441883</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -4269,19 +4269,19 @@
         <v>21510</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>13653</v>
+        <v>13209</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>33227</v>
+        <v>33696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0846111363694492</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05370434819580102</v>
+        <v>0.0519574419849657</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1306997964474281</v>
+        <v>0.1325418157409195</v>
       </c>
     </row>
     <row r="23">
@@ -4298,19 +4298,19 @@
         <v>104917</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97129</v>
+        <v>96848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109308</v>
+        <v>109194</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9345665416199512</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8651931097553268</v>
+        <v>0.8626910438392517</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.973673557349219</v>
+        <v>0.9726607109557157</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>116</v>
@@ -4319,19 +4319,19 @@
         <v>127797</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>118777</v>
+        <v>118809</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>134115</v>
+        <v>134032</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9002232446474491</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8366810906683904</v>
+        <v>0.8369060777558116</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9447225499098326</v>
+        <v>0.9441383145226795</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>210</v>
@@ -4340,19 +4340,19 @@
         <v>232716</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>220999</v>
+        <v>220530</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>240573</v>
+        <v>241017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9153888636305508</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8693002035525719</v>
+        <v>0.8674581842590806</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9462956518041989</v>
+        <v>0.9480425580150343</v>
       </c>
     </row>
     <row r="24">
@@ -4444,19 +4444,19 @@
         <v>3248</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1038</v>
+        <v>1042</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8508</v>
+        <v>9852</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02689681791817532</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008594447297025852</v>
+        <v>0.008625242080619331</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07046135413041683</v>
+        <v>0.08159130127080112</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -4465,19 +4465,19 @@
         <v>14796</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6977</v>
+        <v>8174</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>22965</v>
+        <v>24052</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08999077025675588</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04243280720540439</v>
+        <v>0.04971349089380307</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.139677537093651</v>
+        <v>0.1462849143597082</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -4486,19 +4486,19 @@
         <v>18044</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10013</v>
+        <v>11346</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>28321</v>
+        <v>28640</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06327420354378242</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0351110664184954</v>
+        <v>0.03978641033046921</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09931305944403038</v>
+        <v>0.1004308532928177</v>
       </c>
     </row>
     <row r="26">
@@ -4515,19 +4515,19 @@
         <v>117504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>112244</v>
+        <v>110900</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119714</v>
+        <v>119710</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9731031820818247</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9295386458695831</v>
+        <v>0.9184086987291989</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9914055527029741</v>
+        <v>0.9913747579193807</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -4536,19 +4536,19 @@
         <v>149621</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>141452</v>
+        <v>140365</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157440</v>
+        <v>156243</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9100092297432442</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8603224629063486</v>
+        <v>0.8537150856402922</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9575671927945955</v>
+        <v>0.9502865091061983</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>241</v>
@@ -4557,19 +4557,19 @@
         <v>267125</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>256848</v>
+        <v>256529</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>275156</v>
+        <v>273823</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9367257964562176</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9006869405559695</v>
+        <v>0.8995691467071822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9648889335815045</v>
+        <v>0.9602135896695307</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>34993</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>24613</v>
+        <v>23993</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>48171</v>
+        <v>47952</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06252815223136708</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04398036274270583</v>
+        <v>0.04287187923239322</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08607469512090239</v>
+        <v>0.08568457827733147</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -4682,19 +4682,19 @@
         <v>78523</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>61050</v>
+        <v>60690</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>97757</v>
+        <v>96024</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1056878049742433</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08216990844749889</v>
+        <v>0.0816847711868993</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1315755077599474</v>
+        <v>0.1292425276494208</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>102</v>
@@ -4703,19 +4703,19 @@
         <v>113516</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>93265</v>
+        <v>94263</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>136941</v>
+        <v>135784</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08714526160233066</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07159823578001577</v>
+        <v>0.07236440647329997</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1051279014774795</v>
+        <v>0.1042400574421543</v>
       </c>
     </row>
     <row r="29">
@@ -4732,19 +4732,19 @@
         <v>524644</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>511466</v>
+        <v>511685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>535024</v>
+        <v>535644</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9374718477686329</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9139253048790973</v>
+        <v>0.9143154217226689</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9560196372572941</v>
+        <v>0.9571281207676069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>623</v>
@@ -4753,19 +4753,19 @@
         <v>664452</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>645218</v>
+        <v>646951</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>681925</v>
+        <v>682285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.8943121950257568</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8684244922400524</v>
+        <v>0.8707574723505792</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9178300915525006</v>
+        <v>0.9183152288131007</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1096</v>
@@ -4774,19 +4774,19 @@
         <v>1189096</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1165671</v>
+        <v>1166828</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1209347</v>
+        <v>1208349</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9128547383976693</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8948720985225203</v>
+        <v>0.8957599425578454</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.928401764219984</v>
+        <v>0.9276355935266999</v>
       </c>
     </row>
     <row r="30">
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5910</v>
+        <v>4886</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04095591659764521</v>
@@ -5134,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1519329593582806</v>
+        <v>0.1256078818047157</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -5143,19 +5143,19 @@
         <v>5607</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1286</v>
+        <v>1309</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12851</v>
+        <v>13195</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1135171142883911</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02604504117782735</v>
+        <v>0.0265084831529224</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2601808216659982</v>
+        <v>0.2671439085609602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -5164,19 +5164,19 @@
         <v>7200</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2953</v>
+        <v>3210</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15877</v>
+        <v>15743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08154940504041427</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03344845220268891</v>
+        <v>0.03635674805667222</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1798311791206631</v>
+        <v>0.1783153527405776</v>
       </c>
     </row>
     <row r="5">
@@ -5193,7 +5193,7 @@
         <v>37303</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32986</v>
+        <v>34010</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>38896</v>
@@ -5202,7 +5202,7 @@
         <v>0.9590440834023548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8480670406417254</v>
+        <v>0.8743921181952842</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -5214,19 +5214,19 @@
         <v>43784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36540</v>
+        <v>36196</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48105</v>
+        <v>48082</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8864828857116089</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7398191783340022</v>
+        <v>0.7328560914390401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9739549588221726</v>
+        <v>0.9734915168470777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>79</v>
@@ -5235,19 +5235,19 @@
         <v>81087</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>72410</v>
+        <v>72544</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85334</v>
+        <v>85077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9184505949595857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8201688208793371</v>
+        <v>0.8216846472594223</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9665515477973113</v>
+        <v>0.9636432519433278</v>
       </c>
     </row>
     <row r="6">
@@ -5339,19 +5339,19 @@
         <v>2923</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>873</v>
+        <v>859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8015</v>
+        <v>7636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03348985670456571</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01000451345241706</v>
+        <v>0.009841690387961816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09181849285407369</v>
+        <v>0.08747891272673809</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -5360,19 +5360,19 @@
         <v>7796</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2722</v>
+        <v>2715</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>14828</v>
+        <v>15928</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06765327284575712</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0236211763586198</v>
+        <v>0.0235581349667857</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1286842205171583</v>
+        <v>0.1382330547983246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -5381,19 +5381,19 @@
         <v>10719</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4785</v>
+        <v>5094</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19703</v>
+        <v>19686</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05292758232576283</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02362776369006385</v>
+        <v>0.02515205106880297</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09728823534973424</v>
+        <v>0.09720526824435242</v>
       </c>
     </row>
     <row r="8">
@@ -5410,19 +5410,19 @@
         <v>84372</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79280</v>
+        <v>79659</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>86422</v>
+        <v>86436</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9665101432954343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9081815071459263</v>
+        <v>0.9125210872732618</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989995486547583</v>
+        <v>0.9901583096120381</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -5431,19 +5431,19 @@
         <v>107432</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>100400</v>
+        <v>99300</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>112506</v>
+        <v>112513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9323467271542429</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8713157794828412</v>
+        <v>0.8617669452016754</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9763788236413802</v>
+        <v>0.9764418650332142</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -5452,19 +5452,19 @@
         <v>191804</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>182820</v>
+        <v>182837</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>197738</v>
+        <v>197429</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9470724176742372</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9027117646502658</v>
+        <v>0.9027947317556477</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9763722363099361</v>
+        <v>0.9748479489311971</v>
       </c>
     </row>
     <row r="9">
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6944</v>
+        <v>6435</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03201509763473503</v>
@@ -5568,7 +5568,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1092810317898188</v>
+        <v>0.1012582477517043</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -5577,19 +5577,19 @@
         <v>4477</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12063</v>
+        <v>11974</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05603825202687125</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01539825270651756</v>
+        <v>0.01544963995606581</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1509857184063206</v>
+        <v>0.1498721111504753</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -5598,19 +5598,19 @@
         <v>6512</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2461</v>
+        <v>2425</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14421</v>
+        <v>13989</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04539586399615319</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01715582247655701</v>
+        <v>0.01690299001640013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1005332259427265</v>
+        <v>0.0975233606855142</v>
       </c>
     </row>
     <row r="11">
@@ -5627,7 +5627,7 @@
         <v>61512</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>56602</v>
+        <v>57111</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>63546</v>
@@ -5636,7 +5636,7 @@
         <v>0.9679849023652649</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8907189682101812</v>
+        <v>0.8987417522482959</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -5648,19 +5648,19 @@
         <v>75420</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>67834</v>
+        <v>67923</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78667</v>
+        <v>78663</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9439617479731287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8490142815936794</v>
+        <v>0.8501278888495246</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9846017472934825</v>
+        <v>0.9845503600439341</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>136</v>
@@ -5669,19 +5669,19 @@
         <v>136931</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>129022</v>
+        <v>129454</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>140982</v>
+        <v>141018</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9546041360038469</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8994667740572736</v>
+        <v>0.9024766393144859</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.982844177523443</v>
+        <v>0.9830970099835999</v>
       </c>
     </row>
     <row r="12">
@@ -5773,19 +5773,19 @@
         <v>2578</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6989</v>
+        <v>7054</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03984327768594514</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01186826787488895</v>
+        <v>0.01179487005935159</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1079992690745974</v>
+        <v>0.1090075522178181</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -5794,19 +5794,19 @@
         <v>4710</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12113</v>
+        <v>12824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05143647320356527</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01394276178242167</v>
+        <v>0.01399889406043642</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1322788116814793</v>
+        <v>0.1400435401685223</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -5815,19 +5815,19 @@
         <v>7289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2637</v>
+        <v>2727</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15374</v>
+        <v>15348</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04663618431821494</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01687072985809695</v>
+        <v>0.01745044277040139</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09836884222375297</v>
+        <v>0.09820388041717712</v>
       </c>
     </row>
     <row r="14">
@@ -5844,19 +5844,19 @@
         <v>62134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57723</v>
+        <v>57658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63944</v>
+        <v>63949</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9601567223140549</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8920007309254027</v>
+        <v>0.8909924477821817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9881317321251111</v>
+        <v>0.9882051299406484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -5865,19 +5865,19 @@
         <v>86864</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>79461</v>
+        <v>78750</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>90297</v>
+        <v>90292</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9485635267964347</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8677211883185207</v>
+        <v>0.8599564598314785</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9860572382175783</v>
+        <v>0.9860011059395636</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -5886,19 +5886,19 @@
         <v>148996</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>140911</v>
+        <v>140937</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>153648</v>
+        <v>153558</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9533638156817851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9016311577762461</v>
+        <v>0.9017961195828228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9831292701419031</v>
+        <v>0.9825495572295986</v>
       </c>
     </row>
     <row r="15">
@@ -5993,7 +5993,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4491</v>
+        <v>4529</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01898938165383374</v>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.106715118207106</v>
+        <v>0.107639292517428</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -6011,19 +6011,19 @@
         <v>5711</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2242</v>
+        <v>2228</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11604</v>
+        <v>11475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1130154004538675</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04436729302449948</v>
+        <v>0.04409619465309304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2296333019384879</v>
+        <v>0.2270831240883027</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -6032,19 +6032,19 @@
         <v>6510</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2280</v>
+        <v>2301</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13198</v>
+        <v>12709</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07029299744859083</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02461875247712684</v>
+        <v>0.02485013757739611</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1425055801530632</v>
+        <v>0.1372241306548243</v>
       </c>
     </row>
     <row r="17">
@@ -6061,7 +6061,7 @@
         <v>41281</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37589</v>
+        <v>37551</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>42080</v>
@@ -6070,7 +6070,7 @@
         <v>0.9810106183461662</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.893284881792892</v>
+        <v>0.8923607074825712</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -6082,19 +6082,19 @@
         <v>44821</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38928</v>
+        <v>39057</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>48290</v>
+        <v>48304</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8869845995461325</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7703666980615118</v>
+        <v>0.7729168759116969</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9556327069755005</v>
+        <v>0.9559038053469069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>87</v>
@@ -6103,19 +6103,19 @@
         <v>86102</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>79414</v>
+        <v>79903</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>90332</v>
+        <v>90311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9297070025514091</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8574944198469376</v>
+        <v>0.8627758693451758</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9753812475228734</v>
+        <v>0.9751498624226039</v>
       </c>
     </row>
     <row r="18">
@@ -6207,19 +6207,19 @@
         <v>4202</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1620</v>
+        <v>1596</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8542</v>
+        <v>9214</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08674054680299975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03343782163412423</v>
+        <v>0.03294803827920441</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1763303098323749</v>
+        <v>0.1901835331424011</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -6228,19 +6228,19 @@
         <v>10297</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4721</v>
+        <v>4634</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>18597</v>
+        <v>18036</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1527948074002364</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07006400080338229</v>
+        <v>0.06876524156410367</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2759640018589601</v>
+        <v>0.2676475291899824</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -6249,19 +6249,19 @@
         <v>14499</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7782</v>
+        <v>8470</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23053</v>
+        <v>23716</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1251684551202467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06718458509463418</v>
+        <v>0.07312322051322706</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1990155187980719</v>
+        <v>0.2047453764069311</v>
       </c>
     </row>
     <row r="20">
@@ -6278,19 +6278,19 @@
         <v>44244</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>39904</v>
+        <v>39232</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46826</v>
+        <v>46850</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9132594531970003</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8236696901676251</v>
+        <v>0.8098164668575989</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9665621783658758</v>
+        <v>0.9670519617207955</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>51</v>
@@ -6299,19 +6299,19 @@
         <v>57091</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>48791</v>
+        <v>49352</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62667</v>
+        <v>62754</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8472051925997636</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7240359981410392</v>
+        <v>0.7323524708100176</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9299359991966175</v>
+        <v>0.9312347584358963</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>101</v>
@@ -6320,19 +6320,19 @@
         <v>101335</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>92781</v>
+        <v>92118</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>108052</v>
+        <v>107364</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8748315448797533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8009844812019281</v>
+        <v>0.7952546235930691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9328154149053659</v>
+        <v>0.9268767794867729</v>
       </c>
     </row>
     <row r="21">
@@ -6424,19 +6424,19 @@
         <v>4659</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1773</v>
+        <v>1794</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10239</v>
+        <v>10244</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04152691669580823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0158053942482264</v>
+        <v>0.0159879019357706</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09126553922554738</v>
+        <v>0.09131538209752275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>8</v>
@@ -6445,19 +6445,19 @@
         <v>9548</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4721</v>
+        <v>4446</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18130</v>
+        <v>17401</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06467431844411668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03197903127536266</v>
+        <v>0.0301188922813873</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1228144236139813</v>
+        <v>0.1178713278888705</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>13</v>
@@ -6466,19 +6466,19 @@
         <v>14206</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8150</v>
+        <v>8059</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>23544</v>
+        <v>24081</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05467932031641379</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03136877618467868</v>
+        <v>0.03101758546207604</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09062040919234239</v>
+        <v>0.09268804396272053</v>
       </c>
     </row>
     <row r="23">
@@ -6495,19 +6495,19 @@
         <v>107526</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101946</v>
+        <v>101941</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>110412</v>
+        <v>110391</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9584730833041918</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9087344607744524</v>
+        <v>0.9086846179024776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9841946057517736</v>
+        <v>0.9840120980642294</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -6516,19 +6516,19 @@
         <v>138077</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>129495</v>
+        <v>130224</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142904</v>
+        <v>143179</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9353256815558834</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8771855763860184</v>
+        <v>0.8821286721111294</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9680209687246373</v>
+        <v>0.9698811077186127</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>221</v>
@@ -6537,19 +6537,19 @@
         <v>245604</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>236266</v>
+        <v>235729</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>251660</v>
+        <v>251751</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9453206796835862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9093795908076577</v>
+        <v>0.9073119560372795</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9686312238153214</v>
+        <v>0.968982414537924</v>
       </c>
     </row>
     <row r="24">
@@ -6641,19 +6641,19 @@
         <v>3053</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8555</v>
+        <v>8820</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02275330442103563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006037667094622299</v>
+        <v>0.005994333041499491</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06376399658227552</v>
+        <v>0.0657376985353732</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -6662,19 +6662,19 @@
         <v>5261</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13938</v>
+        <v>12104</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02984357127520809</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007526415029448973</v>
+        <v>0.00751476156158262</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07905973699851902</v>
+        <v>0.06865477166187958</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -6683,19 +6683,19 @@
         <v>8314</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3558</v>
+        <v>3424</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>16859</v>
+        <v>16494</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02677949351001353</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01146021569074089</v>
+        <v>0.0110280716382882</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05430084341208712</v>
+        <v>0.05312746653986231</v>
       </c>
     </row>
     <row r="26">
@@ -6712,19 +6712,19 @@
         <v>131115</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>125613</v>
+        <v>125348</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>133358</v>
+        <v>133364</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9772466955789644</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9362360034177247</v>
+        <v>0.9342623014646271</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9939623329053777</v>
+        <v>0.9940056669585005</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>138</v>
@@ -6733,19 +6733,19 @@
         <v>171036</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>162359</v>
+        <v>164193</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>174970</v>
+        <v>174972</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9701564287247919</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9209402630014764</v>
+        <v>0.9313452283381203</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.992473584970551</v>
+        <v>0.9924852384384174</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>276</v>
@@ -6754,19 +6754,19 @@
         <v>302151</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>293606</v>
+        <v>293971</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>306907</v>
+        <v>307041</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9732205064899865</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9456991565879127</v>
+        <v>0.9468725334601373</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.988539784309259</v>
+        <v>0.9889719283617118</v>
       </c>
     </row>
     <row r="27">
@@ -6858,19 +6858,19 @@
         <v>21842</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14361</v>
+        <v>14012</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>31366</v>
+        <v>30937</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03693728786044777</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02428582029756736</v>
+        <v>0.02369610530868747</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05304403587404487</v>
+        <v>0.05231734419042662</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>41</v>
@@ -6879,19 +6879,19 @@
         <v>53406</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>38084</v>
+        <v>38867</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68462</v>
+        <v>72647</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06865140214039389</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04895554843587688</v>
+        <v>0.04996232495392537</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08800521869244551</v>
+        <v>0.09338487918042566</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>65</v>
@@ -6900,19 +6900,19 @@
         <v>75248</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>58369</v>
+        <v>58349</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96130</v>
+        <v>95326</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.05495534920927032</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04262804685368558</v>
+        <v>0.04261360663764485</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07020549810786976</v>
+        <v>0.06961853435274629</v>
       </c>
     </row>
     <row r="29">
@@ -6929,19 +6929,19 @@
         <v>569486</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>559962</v>
+        <v>560391</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>576967</v>
+        <v>577316</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.9630627121395522</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9469559641259552</v>
+        <v>0.9476826558095734</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9757141797024327</v>
+        <v>0.9763038946913125</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>614</v>
@@ -6950,19 +6950,19 @@
         <v>724525</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>709469</v>
+        <v>705284</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>739847</v>
+        <v>739064</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9313485978596061</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9119947813075544</v>
+        <v>0.9066151208195746</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9510444515641231</v>
+        <v>0.9500376750460755</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1217</v>
@@ -6971,19 +6971,19 @@
         <v>1294011</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1273129</v>
+        <v>1273933</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1310890</v>
+        <v>1310910</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9450446507907296</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9297945018921301</v>
+        <v>0.9303814656472538</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9573719531463144</v>
+        <v>0.9573863933623551</v>
       </c>
     </row>
     <row r="30">
@@ -7322,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4385</v>
+        <v>4410</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01452442622984818</v>
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07194589609960098</v>
+        <v>0.07235211677504376</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -7340,19 +7340,19 @@
         <v>5498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2754</v>
+        <v>2649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9778</v>
+        <v>9335</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08422774268429944</v>
+        <v>0.08422774268429946</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04219037862939053</v>
+        <v>0.04057702301944064</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.149787540304662</v>
+        <v>0.1430057574799974</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -7361,19 +7361,19 @@
         <v>6383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3271</v>
+        <v>3405</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11470</v>
+        <v>11777</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05056922339035859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0259113290029472</v>
+        <v>0.02697295529128576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09086327599866173</v>
+        <v>0.09329405972988093</v>
       </c>
     </row>
     <row r="5">
@@ -7390,7 +7390,7 @@
         <v>60070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>56570</v>
+        <v>56545</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>60955</v>
@@ -7399,7 +7399,7 @@
         <v>0.9854755737701518</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9280541039003991</v>
+        <v>0.9276478832249563</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -7411,19 +7411,19 @@
         <v>59778</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55498</v>
+        <v>55941</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62522</v>
+        <v>62627</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9157722573157006</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8502124596953381</v>
+        <v>0.8569942425200027</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9578096213706095</v>
+        <v>0.9594229769805594</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>205</v>
@@ -7432,19 +7432,19 @@
         <v>119848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>114761</v>
+        <v>114454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>122960</v>
+        <v>122826</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9494307766096413</v>
+        <v>0.9494307766096414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9091367240013378</v>
+        <v>0.9067059402701191</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9740886709970528</v>
+        <v>0.9730270447087143</v>
       </c>
     </row>
     <row r="6">
@@ -7536,19 +7536,19 @@
         <v>6614</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2840</v>
+        <v>2859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12909</v>
+        <v>12437</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.07483696328307841</v>
+        <v>0.07483696328307844</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03213568383572586</v>
+        <v>0.03235362103695222</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1460721168508657</v>
+        <v>0.1407328655539073</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>36</v>
@@ -7557,19 +7557,19 @@
         <v>23637</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16490</v>
+        <v>17009</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31662</v>
+        <v>30720</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1746642172519995</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1218551113862028</v>
+        <v>0.1256853392889367</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2339640114194121</v>
+        <v>0.2270049621135289</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -7578,19 +7578,19 @@
         <v>30251</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>22119</v>
+        <v>22663</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>39555</v>
+        <v>39848</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1352274070682834</v>
+        <v>0.1352274070682833</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0988783523814705</v>
+        <v>0.1013088029908802</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1768196369362592</v>
+        <v>0.1781311309816797</v>
       </c>
     </row>
     <row r="8">
@@ -7607,19 +7607,19 @@
         <v>81759</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>75464</v>
+        <v>75936</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>85533</v>
+        <v>85514</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9251630367169217</v>
+        <v>0.9251630367169215</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8539278831491348</v>
+        <v>0.8592671344460927</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9678643161642742</v>
+        <v>0.9676463789630479</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>187</v>
@@ -7628,19 +7628,19 @@
         <v>111691</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>103666</v>
+        <v>104608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>118838</v>
+        <v>118319</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8253357827480006</v>
+        <v>0.8253357827480007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.766035988580588</v>
+        <v>0.7729950378864709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8781448886137972</v>
+        <v>0.8743146607110631</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>275</v>
@@ -7649,19 +7649,19 @@
         <v>193450</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>184146</v>
+        <v>183853</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>201582</v>
+        <v>201038</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8647725929317166</v>
+        <v>0.8647725929317167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8231803630637409</v>
+        <v>0.8218688690183203</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9011216476185298</v>
+        <v>0.8986911970091198</v>
       </c>
     </row>
     <row r="9">
@@ -7753,19 +7753,19 @@
         <v>9246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5608</v>
+        <v>5430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13950</v>
+        <v>14034</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1279124024698644</v>
+        <v>0.1279124024698643</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07758736619789734</v>
+        <v>0.07512404704880044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1929901836135611</v>
+        <v>0.1941510863129691</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>21</v>
@@ -7774,19 +7774,19 @@
         <v>10904</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7205</v>
+        <v>6979</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16249</v>
+        <v>16165</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1270086974103833</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08392888350667425</v>
+        <v>0.08129841816353266</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.189271590967059</v>
+        <v>0.1882942395909115</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -7795,19 +7795,19 @@
         <v>20150</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14306</v>
+        <v>14943</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26532</v>
+        <v>26667</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.127421789356423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09046835279231072</v>
+        <v>0.09449394886299273</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.167779839150891</v>
+        <v>0.1686355673628097</v>
       </c>
     </row>
     <row r="11">
@@ -7824,19 +7824,19 @@
         <v>63039</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58335</v>
+        <v>58251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>66677</v>
+        <v>66855</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8720875975301359</v>
+        <v>0.8720875975301355</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8070098163864388</v>
+        <v>0.8058489136870307</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9224126338021028</v>
+        <v>0.9248759529511993</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>148</v>
@@ -7845,19 +7845,19 @@
         <v>74946</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69601</v>
+        <v>69685</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>78645</v>
+        <v>78871</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8729913025896167</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.810728409032941</v>
+        <v>0.8117057604090884</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9160711164933258</v>
+        <v>0.9187015818364673</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -7866,19 +7866,19 @@
         <v>137985</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>131603</v>
+        <v>131468</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>143829</v>
+        <v>143192</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8725782106435769</v>
+        <v>0.8725782106435772</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8322201608491087</v>
+        <v>0.8313644326371903</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9095316472076892</v>
+        <v>0.9055060511370074</v>
       </c>
     </row>
     <row r="12">
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3891</v>
+        <v>4339</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01515256407752357</v>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04679382760190326</v>
+        <v>0.05218353384273819</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>25</v>
@@ -7991,19 +7991,19 @@
         <v>10425</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6876</v>
+        <v>6744</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14773</v>
+        <v>14804</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09434056484707209</v>
+        <v>0.09434056484707207</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06221984045686513</v>
+        <v>0.06103358420003097</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1336829926735998</v>
+        <v>0.1339692409962344</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -8012,19 +8012,19 @@
         <v>11685</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8041</v>
+        <v>7759</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16421</v>
+        <v>16307</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06033779438272381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04152224136788504</v>
+        <v>0.04006604806074267</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08479495620343379</v>
+        <v>0.08420470779106812</v>
       </c>
     </row>
     <row r="14">
@@ -8041,7 +8041,7 @@
         <v>81896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79265</v>
+        <v>78817</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>83156</v>
@@ -8050,7 +8050,7 @@
         <v>0.9848474359224765</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9532061723980967</v>
+        <v>0.94781646615726</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -8062,19 +8062,19 @@
         <v>100079</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95731</v>
+        <v>95700</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103628</v>
+        <v>103760</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9056594351529281</v>
+        <v>0.905659435152928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8663170073264002</v>
+        <v>0.8660307590037657</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9377801595431347</v>
+        <v>0.938966415799969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>347</v>
@@ -8083,19 +8083,19 @@
         <v>181975</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>177239</v>
+        <v>177353</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>185619</v>
+        <v>185901</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9396622056172761</v>
+        <v>0.9396622056172763</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9152050437965663</v>
+        <v>0.9157952922089317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9584777586321153</v>
+        <v>0.9599339519392573</v>
       </c>
     </row>
     <row r="15">
@@ -8187,19 +8187,19 @@
         <v>2095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>572</v>
+        <v>597</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5140</v>
+        <v>5207</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05739641611190191</v>
+        <v>0.05739641611190189</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01568006564539262</v>
+        <v>0.01635353509529291</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1408222921434819</v>
+        <v>0.1426540779802679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -8208,19 +8208,19 @@
         <v>6547</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4018</v>
+        <v>4031</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10323</v>
+        <v>10459</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1070324636182462</v>
+        <v>0.1070324636182463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06569342653938443</v>
+        <v>0.06591001417994835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1687809773778509</v>
+        <v>0.1710036068077704</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -8229,19 +8229,19 @@
         <v>8642</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5438</v>
+        <v>5192</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12929</v>
+        <v>13304</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.08848104085873501</v>
+        <v>0.088481040858735</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05568036797934958</v>
+        <v>0.05316471743997288</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.132374882777494</v>
+        <v>0.1362139947668018</v>
       </c>
     </row>
     <row r="17">
@@ -8258,19 +8258,19 @@
         <v>34408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31363</v>
+        <v>31296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35931</v>
+        <v>35906</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9426035838880983</v>
+        <v>0.9426035838880978</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8591777078565183</v>
+        <v>0.8573459220197325</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9843199343546076</v>
+        <v>0.9836464649047072</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -8279,19 +8279,19 @@
         <v>54617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50841</v>
+        <v>50705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>57146</v>
+        <v>57133</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8929675363817537</v>
+        <v>0.8929675363817539</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8312190226221483</v>
+        <v>0.8289963931922295</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9343065734606155</v>
+        <v>0.9340899858200513</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>215</v>
@@ -8300,19 +8300,19 @@
         <v>89025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>84738</v>
+        <v>84363</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>92229</v>
+        <v>92475</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9115189591412651</v>
+        <v>0.911518959141265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8676251172225059</v>
+        <v>0.8637860052331982</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9443196320206504</v>
+        <v>0.9468352825600267</v>
       </c>
     </row>
     <row r="18">
@@ -8404,19 +8404,19 @@
         <v>4850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2625</v>
+        <v>2542</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7921</v>
+        <v>7786</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08053711885982201</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04358813422175954</v>
+        <v>0.04221651917281522</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1315331046655745</v>
+        <v>0.1292837242287741</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -8425,19 +8425,19 @@
         <v>10567</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>7206</v>
+        <v>7419</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14749</v>
+        <v>14612</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.156990830274856</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1070613816617687</v>
+        <v>0.1102287496679977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2191289600305368</v>
+        <v>0.2170952986228359</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>43</v>
@@ -8446,19 +8446,19 @@
         <v>15417</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11448</v>
+        <v>11400</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20516</v>
+        <v>20240</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1208876334550798</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08976572644926475</v>
+        <v>0.08938860528005955</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1608675206918969</v>
+        <v>0.1587055706930621</v>
       </c>
     </row>
     <row r="20">
@@ -8475,19 +8475,19 @@
         <v>55374</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52303</v>
+        <v>52438</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>57599</v>
+        <v>57682</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9194628811401779</v>
+        <v>0.919462881140178</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8684668953344259</v>
+        <v>0.8707162757712259</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9564118657782407</v>
+        <v>0.9577834808271848</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -8496,19 +8496,19 @@
         <v>56742</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52560</v>
+        <v>52697</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60103</v>
+        <v>59890</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8430091697251441</v>
+        <v>0.8430091697251442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7808710399694629</v>
+        <v>0.7829047013771641</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8929386183382308</v>
+        <v>0.8897712503320023</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>269</v>
@@ -8517,19 +8517,19 @@
         <v>112115</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>107016</v>
+        <v>107292</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>116084</v>
+        <v>116132</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8791123665449201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.839132479308103</v>
+        <v>0.841294429306938</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9102342735507354</v>
+        <v>0.9106113947199406</v>
       </c>
     </row>
     <row r="21">
@@ -8621,19 +8621,19 @@
         <v>4670</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1756</v>
+        <v>1780</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10308</v>
+        <v>10281</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.03085628768540032</v>
+        <v>0.03085628768540033</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0116006353054224</v>
+        <v>0.0117625695342224</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06811325659440352</v>
+        <v>0.06792984549008128</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -8642,19 +8642,19 @@
         <v>11680</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6992</v>
+        <v>6527</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>17527</v>
+        <v>17958</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07088547016199505</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04243705544954116</v>
+        <v>0.03961429097981255</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1063749693741506</v>
+        <v>0.1089872480693241</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>21</v>
@@ -8663,19 +8663,19 @@
         <v>16350</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10727</v>
+        <v>9855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24159</v>
+        <v>24322</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05172107045599519</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03393552203074388</v>
+        <v>0.03117636005707678</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07642496394998148</v>
+        <v>0.07694126920610428</v>
       </c>
     </row>
     <row r="23">
@@ -8692,19 +8692,19 @@
         <v>146671</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>141033</v>
+        <v>141060</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149585</v>
+        <v>149561</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9691437123145997</v>
+        <v>0.9691437123145998</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9318867434055965</v>
+        <v>0.9320701545099186</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9883993646945776</v>
+        <v>0.9882374304657775</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>226</v>
@@ -8713,19 +8713,19 @@
         <v>153089</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147242</v>
+        <v>146811</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>157777</v>
+        <v>158242</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9291145298380052</v>
+        <v>0.9291145298380051</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8936250306258492</v>
+        <v>0.8910127519306758</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9575629445504589</v>
+        <v>0.9603857090201873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>389</v>
@@ -8734,19 +8734,19 @@
         <v>299761</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>291952</v>
+        <v>291789</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>305384</v>
+        <v>306256</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9482789295440048</v>
+        <v>0.9482789295440049</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9235750360500183</v>
+        <v>0.9230587307938958</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9660644779692557</v>
+        <v>0.9688236399429232</v>
       </c>
     </row>
     <row r="24">
@@ -8838,19 +8838,19 @@
         <v>4014</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8231</v>
+        <v>8449</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02454244122617209</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008226326746066874</v>
+        <v>0.008254436151601662</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05032386886036896</v>
+        <v>0.05166050101818297</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>13</v>
@@ -8859,19 +8859,19 @@
         <v>8026</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4435</v>
+        <v>4261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12976</v>
+        <v>13367</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03772440466126489</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02084541942745207</v>
+        <v>0.02002730030330617</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0609893223493591</v>
+        <v>0.06282327737843507</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>19</v>
@@ -8880,19 +8880,19 @@
         <v>12041</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>7538</v>
+        <v>7429</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>17899</v>
+        <v>18490</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03199533254400185</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02003192642403366</v>
+        <v>0.01974108709652275</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0475642616700746</v>
+        <v>0.04913438416869608</v>
       </c>
     </row>
     <row r="26">
@@ -8909,19 +8909,19 @@
         <v>159540</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>155323</v>
+        <v>155105</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>162209</v>
+        <v>162204</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.975457558773828</v>
+        <v>0.9754575587738278</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9496761311396293</v>
+        <v>0.9483394989818144</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9917736732539334</v>
+        <v>0.9917455638483984</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>330</v>
@@ -8930,19 +8930,19 @@
         <v>204740</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>199790</v>
+        <v>199399</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>208331</v>
+        <v>208505</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9622755953387352</v>
+        <v>0.962275595338735</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9390106776506408</v>
+        <v>0.9371767226215649</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9791545805725478</v>
+        <v>0.9799726996966939</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>559</v>
@@ -8951,19 +8951,19 @@
         <v>364280</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>358422</v>
+        <v>357831</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>368783</v>
+        <v>368892</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9680046674559981</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9524357383299256</v>
+        <v>0.9508656158313042</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9799680735759665</v>
+        <v>0.9802589129034774</v>
       </c>
     </row>
     <row r="27">
@@ -9055,19 +9055,19 @@
         <v>33634</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25682</v>
+        <v>25197</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44040</v>
+        <v>44382</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.04694963273659322</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.03584906608638413</v>
+        <v>0.0351716875318175</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06147504663500755</v>
+        <v>0.06195267699940079</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>167</v>
@@ -9076,19 +9076,19 @@
         <v>87283</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>75298</v>
+        <v>75041</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>103284</v>
+        <v>102665</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.0966628465951305</v>
+        <v>0.09666284659513046</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08338934389761554</v>
+        <v>0.08310521366104764</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1143827910197786</v>
+        <v>0.1136978405885358</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>220</v>
@@ -9097,19 +9097,19 @@
         <v>120918</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>105160</v>
+        <v>106528</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>138388</v>
+        <v>138699</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.07467009694370975</v>
+        <v>0.07467009694370977</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0649392294568337</v>
+        <v>0.06578400305958419</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08545863077793638</v>
+        <v>0.08565063442942365</v>
       </c>
     </row>
     <row r="29">
@@ -9126,19 +9126,19 @@
         <v>682757</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>672351</v>
+        <v>672009</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>690709</v>
+        <v>691194</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9530503672634068</v>
+        <v>0.9530503672634069</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9385249533649923</v>
+        <v>0.9380473230005992</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9641509339136157</v>
+        <v>0.964828312468182</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1539</v>
@@ -9147,19 +9147,19 @@
         <v>815683</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>799682</v>
+        <v>800301</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>827668</v>
+        <v>827925</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.9033371534048696</v>
+        <v>0.9033371534048695</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8856172089802209</v>
+        <v>0.8863021594114643</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9166106561023841</v>
+        <v>0.9168947863389523</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2513</v>
@@ -9168,19 +9168,19 @@
         <v>1498439</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1480969</v>
+        <v>1480658</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1514197</v>
+        <v>1512829</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9253299030562901</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9145413692220637</v>
+        <v>0.9143493655705763</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9350607705431662</v>
+        <v>0.9342159969404158</v>
       </c>
     </row>
     <row r="30">
